--- a/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-09-03/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -486,13 +553,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14955</v>
+        <v>14959</v>
       </c>
       <c r="D3" t="n">
         <v>3050</v>
       </c>
       <c r="E3" t="n">
-        <v>59658793</v>
+        <v>59662872</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -537,13 +604,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6024</v>
+        <v>6026</v>
       </c>
       <c r="D4" t="n">
         <v>1166</v>
       </c>
       <c r="E4" t="n">
-        <v>33072477</v>
+        <v>33087308</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -792,13 +859,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="D9" t="n">
         <v>723</v>
       </c>
       <c r="E9" t="n">
-        <v>7273802</v>
+        <v>7274076</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -843,13 +910,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="D10" t="n">
         <v>593</v>
       </c>
       <c r="E10" t="n">
-        <v>9383401</v>
+        <v>9383633</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -894,13 +961,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9153</v>
+        <v>9155</v>
       </c>
       <c r="D11" t="n">
         <v>1869</v>
       </c>
       <c r="E11" t="n">
-        <v>34367401</v>
+        <v>34368879</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -945,13 +1012,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="D12" t="n">
         <v>576</v>
       </c>
       <c r="E12" t="n">
-        <v>12778664</v>
+        <v>12783587</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1251,13 +1318,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7419</v>
+        <v>7420</v>
       </c>
       <c r="D18" t="n">
         <v>1192</v>
       </c>
       <c r="E18" t="n">
-        <v>29156549</v>
+        <v>29160090</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,13 +1369,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11125</v>
+        <v>11126</v>
       </c>
       <c r="D19" t="n">
         <v>2136</v>
       </c>
       <c r="E19" t="n">
-        <v>48484793</v>
+        <v>48485475</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1353,13 +1420,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="D20" t="n">
         <v>666</v>
       </c>
       <c r="E20" t="n">
-        <v>16951400</v>
+        <v>16955599</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1404,13 +1471,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D21" t="n">
         <v>162</v>
       </c>
       <c r="E21" t="n">
-        <v>6207648</v>
+        <v>6269394</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1455,13 +1522,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D22" t="n">
         <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>6716266</v>
+        <v>6767349</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1710,13 +1777,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5256</v>
+        <v>5258</v>
       </c>
       <c r="D27" t="n">
         <v>1032</v>
       </c>
       <c r="E27" t="n">
-        <v>21616440</v>
+        <v>21618239</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1965,13 +2032,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5510</v>
+        <v>5511</v>
       </c>
       <c r="D32" t="n">
         <v>1229</v>
       </c>
       <c r="E32" t="n">
-        <v>9362007</v>
+        <v>9362213</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2016,13 +2083,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8122</v>
+        <v>8123</v>
       </c>
       <c r="D33" t="n">
         <v>1538</v>
       </c>
       <c r="E33" t="n">
-        <v>26200796</v>
+        <v>26201471</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2067,13 +2134,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16627</v>
+        <v>16631</v>
       </c>
       <c r="D34" t="n">
         <v>3368</v>
       </c>
       <c r="E34" t="n">
-        <v>67191329</v>
+        <v>67200313</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2118,13 +2185,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="D35" t="n">
         <v>1169</v>
       </c>
       <c r="E35" t="n">
-        <v>30998967</v>
+        <v>31003517</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2424,13 +2491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5609</v>
+        <v>5610</v>
       </c>
       <c r="D41" t="n">
         <v>1175</v>
       </c>
       <c r="E41" t="n">
-        <v>9921233</v>
+        <v>9922126</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2628,13 +2695,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D45" t="n">
         <v>130</v>
       </c>
       <c r="E45" t="n">
-        <v>4886308</v>
+        <v>4947128</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2832,13 +2899,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11831</v>
+        <v>11834</v>
       </c>
       <c r="D49" t="n">
         <v>2184</v>
       </c>
       <c r="E49" t="n">
-        <v>45043837</v>
+        <v>45045972</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2883,13 +2950,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>26911</v>
+        <v>26916</v>
       </c>
       <c r="D50" t="n">
         <v>5062</v>
       </c>
       <c r="E50" t="n">
-        <v>128503832</v>
+        <v>128529724</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2934,13 +3001,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13990</v>
+        <v>13992</v>
       </c>
       <c r="D51" t="n">
         <v>2377</v>
       </c>
       <c r="E51" t="n">
-        <v>95108314</v>
+        <v>95125739</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2985,13 +3052,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6314</v>
+        <v>6317</v>
       </c>
       <c r="D52" t="n">
         <v>1006</v>
       </c>
       <c r="E52" t="n">
-        <v>64997930</v>
+        <v>65015605</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3036,13 +3103,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3731</v>
+        <v>3733</v>
       </c>
       <c r="D53" t="n">
         <v>592</v>
       </c>
       <c r="E53" t="n">
-        <v>68918726</v>
+        <v>68944169</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3342,13 +3409,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>14791</v>
+        <v>14797</v>
       </c>
       <c r="D59" t="n">
         <v>2616</v>
       </c>
       <c r="E59" t="n">
-        <v>37075579</v>
+        <v>37087868</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3393,13 +3460,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14168</v>
+        <v>14176</v>
       </c>
       <c r="D60" t="n">
         <v>2904</v>
       </c>
       <c r="E60" t="n">
-        <v>43716776</v>
+        <v>43749852</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3444,13 +3511,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>34767</v>
+        <v>34784</v>
       </c>
       <c r="D61" t="n">
         <v>6992</v>
       </c>
       <c r="E61" t="n">
-        <v>144099521</v>
+        <v>144168136</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3495,13 +3562,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>14019</v>
+        <v>14027</v>
       </c>
       <c r="D62" t="n">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="E62" t="n">
-        <v>84321917</v>
+        <v>84456173</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3546,13 +3613,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5008</v>
+        <v>5013</v>
       </c>
       <c r="D63" t="n">
         <v>905</v>
       </c>
       <c r="E63" t="n">
-        <v>42693716</v>
+        <v>42757073</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3597,13 +3664,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="D64" t="n">
         <v>384</v>
       </c>
       <c r="E64" t="n">
-        <v>34687304</v>
+        <v>34722117</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3699,13 +3766,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D66" t="n">
         <v>27</v>
       </c>
       <c r="E66" t="n">
-        <v>8229271</v>
+        <v>8238486</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3852,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13540</v>
+        <v>13546</v>
       </c>
       <c r="D69" t="n">
         <v>2722</v>
       </c>
       <c r="E69" t="n">
-        <v>31333345</v>
+        <v>31340221</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3903,13 +3970,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7570</v>
+        <v>7572</v>
       </c>
       <c r="D70" t="n">
         <v>1546</v>
       </c>
       <c r="E70" t="n">
-        <v>22387453</v>
+        <v>22390651</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3954,13 +4021,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19630</v>
+        <v>19638</v>
       </c>
       <c r="D71" t="n">
         <v>4044</v>
       </c>
       <c r="E71" t="n">
-        <v>75871893</v>
+        <v>75889010</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4005,13 +4072,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6939</v>
+        <v>6944</v>
       </c>
       <c r="D72" t="n">
         <v>1510</v>
       </c>
       <c r="E72" t="n">
-        <v>36120695</v>
+        <v>36146747</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4056,13 +4123,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="D73" t="n">
         <v>474</v>
       </c>
       <c r="E73" t="n">
-        <v>16925260</v>
+        <v>16934431</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4107,13 +4174,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="D74" t="n">
         <v>224</v>
       </c>
       <c r="E74" t="n">
-        <v>14556164</v>
+        <v>14609200</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4158,13 +4225,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D75" t="n">
         <v>57</v>
       </c>
       <c r="E75" t="n">
-        <v>8852289</v>
+        <v>8926524</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4311,13 +4378,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7362</v>
+        <v>7364</v>
       </c>
       <c r="D78" t="n">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="E78" t="n">
-        <v>13915549</v>
+        <v>13916546</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4362,13 +4429,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6709</v>
+        <v>6712</v>
       </c>
       <c r="D79" t="n">
         <v>1281</v>
       </c>
       <c r="E79" t="n">
-        <v>20582333</v>
+        <v>20585139</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4413,13 +4480,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18001</v>
+        <v>18010</v>
       </c>
       <c r="D80" t="n">
         <v>3517</v>
       </c>
       <c r="E80" t="n">
-        <v>72322059</v>
+        <v>72331462</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4464,13 +4531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7100</v>
+        <v>7104</v>
       </c>
       <c r="D81" t="n">
         <v>1393</v>
       </c>
       <c r="E81" t="n">
-        <v>41944492</v>
+        <v>41961218</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4515,13 +4582,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D82" t="n">
         <v>457</v>
       </c>
       <c r="E82" t="n">
-        <v>18584724</v>
+        <v>18587855</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4566,13 +4633,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D83" t="n">
         <v>222</v>
       </c>
       <c r="E83" t="n">
-        <v>18705831</v>
+        <v>18720643</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4617,13 +4684,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D84" t="n">
         <v>70</v>
       </c>
       <c r="E84" t="n">
-        <v>10906436</v>
+        <v>10957097</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4770,13 +4837,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6826</v>
+        <v>6829</v>
       </c>
       <c r="D87" t="n">
         <v>1431</v>
       </c>
       <c r="E87" t="n">
-        <v>13757135</v>
+        <v>13763431</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4821,13 +4888,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22282</v>
+        <v>22286</v>
       </c>
       <c r="D88" t="n">
         <v>4509</v>
       </c>
       <c r="E88" t="n">
-        <v>66066926</v>
+        <v>66083543</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4872,13 +4939,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>56735</v>
+        <v>56753</v>
       </c>
       <c r="D89" t="n">
         <v>11348</v>
       </c>
       <c r="E89" t="n">
-        <v>227077901</v>
+        <v>227298679</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4923,13 +4990,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>23496</v>
+        <v>23504</v>
       </c>
       <c r="D90" t="n">
         <v>4496</v>
       </c>
       <c r="E90" t="n">
-        <v>139689247</v>
+        <v>139739874</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4974,13 +5041,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>8978</v>
+        <v>8985</v>
       </c>
       <c r="D91" t="n">
         <v>1564</v>
       </c>
       <c r="E91" t="n">
-        <v>78240891</v>
+        <v>78320337</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5025,13 +5092,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4431</v>
+        <v>4440</v>
       </c>
       <c r="D92" t="n">
         <v>744</v>
       </c>
       <c r="E92" t="n">
-        <v>77643904</v>
+        <v>77812365</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5076,13 +5143,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="D93" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E93" t="n">
-        <v>56160470</v>
+        <v>56288647</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5280,13 +5347,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" t="n">
         <v>7</v>
       </c>
       <c r="E97" t="n">
-        <v>2225248</v>
+        <v>2295207</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -5382,13 +5449,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16444</v>
+        <v>16451</v>
       </c>
       <c r="D99" t="n">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="E99" t="n">
-        <v>34449475</v>
+        <v>34459785</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5433,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8650</v>
+        <v>8656</v>
       </c>
       <c r="D100" t="n">
         <v>1557</v>
       </c>
       <c r="E100" t="n">
-        <v>31948985</v>
+        <v>31971602</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5484,13 +5551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>21170</v>
+        <v>21184</v>
       </c>
       <c r="D101" t="n">
         <v>3600</v>
       </c>
       <c r="E101" t="n">
-        <v>106043408</v>
+        <v>106190137</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5535,13 +5602,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>12182</v>
+        <v>12195</v>
       </c>
       <c r="D102" t="n">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E102" t="n">
-        <v>91645793</v>
+        <v>91742101</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5586,13 +5653,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6015</v>
+        <v>6022</v>
       </c>
       <c r="D103" t="n">
         <v>931</v>
       </c>
       <c r="E103" t="n">
-        <v>69916239</v>
+        <v>70026912</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5637,13 +5704,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3481</v>
+        <v>3486</v>
       </c>
       <c r="D104" t="n">
         <v>558</v>
       </c>
       <c r="E104" t="n">
-        <v>75567127</v>
+        <v>75688897</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5892,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>23471</v>
+        <v>23482</v>
       </c>
       <c r="D109" t="n">
         <v>3192</v>
       </c>
       <c r="E109" t="n">
-        <v>69841802</v>
+        <v>69877581</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5943,13 +6010,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4797</v>
+        <v>4800</v>
       </c>
       <c r="D110" t="n">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E110" t="n">
-        <v>15776963</v>
+        <v>15784873</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5994,13 +6061,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12866</v>
+        <v>12869</v>
       </c>
       <c r="D111" t="n">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="E111" t="n">
-        <v>56501796</v>
+        <v>56507126</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6045,13 +6112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5488</v>
+        <v>5491</v>
       </c>
       <c r="D112" t="n">
         <v>1072</v>
       </c>
       <c r="E112" t="n">
-        <v>33582474</v>
+        <v>33648630</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6096,13 +6163,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="D113" t="n">
         <v>360</v>
       </c>
       <c r="E113" t="n">
-        <v>20407184</v>
+        <v>20412477</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6300,13 +6367,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="D117" t="n">
         <v>984</v>
       </c>
       <c r="E117" t="n">
-        <v>9267869</v>
+        <v>9268606</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6402,13 +6469,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>11306</v>
+        <v>11308</v>
       </c>
       <c r="D119" t="n">
         <v>2356</v>
       </c>
       <c r="E119" t="n">
-        <v>45137495</v>
+        <v>45139896</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6453,13 +6520,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4776</v>
+        <v>4780</v>
       </c>
       <c r="D120" t="n">
         <v>893</v>
       </c>
       <c r="E120" t="n">
-        <v>27643523</v>
+        <v>27652805</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6810,13 +6877,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="D127" t="n">
         <v>935</v>
       </c>
       <c r="E127" t="n">
-        <v>16627129</v>
+        <v>16628231</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -7167,13 +7234,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7023</v>
+        <v>7026</v>
       </c>
       <c r="D134" t="n">
         <v>1402</v>
       </c>
       <c r="E134" t="n">
-        <v>29185442</v>
+        <v>29196353</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7269,13 +7336,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D136" t="n">
         <v>171</v>
       </c>
       <c r="E136" t="n">
-        <v>6769333</v>
+        <v>6776542</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7524,13 +7591,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="D141" t="n">
         <v>352</v>
       </c>
       <c r="E141" t="n">
-        <v>6593970</v>
+        <v>6595296</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7575,13 +7642,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4884</v>
+        <v>4886</v>
       </c>
       <c r="D142" t="n">
         <v>1013</v>
       </c>
       <c r="E142" t="n">
-        <v>20113589</v>
+        <v>20115583</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7626,13 +7693,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D143" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E143" t="n">
-        <v>8506545</v>
+        <v>8506769</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7830,13 +7897,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D147" t="n">
         <v>427</v>
       </c>
       <c r="E147" t="n">
-        <v>4043052</v>
+        <v>4043182</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7881,13 +7948,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5206</v>
+        <v>5207</v>
       </c>
       <c r="D148" t="n">
         <v>988</v>
       </c>
       <c r="E148" t="n">
-        <v>17484593</v>
+        <v>17486753</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7932,13 +7999,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>14910</v>
+        <v>14915</v>
       </c>
       <c r="D149" t="n">
         <v>2990</v>
       </c>
       <c r="E149" t="n">
-        <v>61457018</v>
+        <v>61460653</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7983,13 +8050,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="D150" t="n">
         <v>1036</v>
       </c>
       <c r="E150" t="n">
-        <v>29226343</v>
+        <v>29232897</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -8034,13 +8101,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D151" t="n">
         <v>295</v>
       </c>
       <c r="E151" t="n">
-        <v>10730273</v>
+        <v>10740688</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -8238,13 +8305,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5756</v>
+        <v>5758</v>
       </c>
       <c r="D155" t="n">
         <v>1276</v>
       </c>
       <c r="E155" t="n">
-        <v>12146632</v>
+        <v>12147467</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -8289,13 +8356,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D156" t="n">
         <v>206</v>
       </c>
       <c r="E156" t="n">
-        <v>2802209</v>
+        <v>2802459</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8340,13 +8407,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="D157" t="n">
         <v>579</v>
       </c>
       <c r="E157" t="n">
-        <v>12269941</v>
+        <v>12272701</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -8493,13 +8560,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D160" t="n">
         <v>30</v>
       </c>
       <c r="E160" t="n">
-        <v>3116315</v>
+        <v>3120848</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -8595,13 +8662,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D162" t="n">
         <v>172</v>
       </c>
       <c r="E162" t="n">
-        <v>1549592</v>
+        <v>1550540</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -8697,13 +8764,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>8025</v>
+        <v>8026</v>
       </c>
       <c r="D164" t="n">
         <v>1704</v>
       </c>
       <c r="E164" t="n">
-        <v>32634907</v>
+        <v>32636733</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -8799,13 +8866,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D166" t="n">
         <v>193</v>
       </c>
       <c r="E166" t="n">
-        <v>6472121</v>
+        <v>6473833</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -9003,13 +9070,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="D170" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E170" t="n">
-        <v>5514711</v>
+        <v>5519974</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9054,13 +9121,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>7021</v>
+        <v>7022</v>
       </c>
       <c r="D171" t="n">
         <v>1266</v>
       </c>
       <c r="E171" t="n">
-        <v>26961803</v>
+        <v>26963705</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9105,13 +9172,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>15803</v>
+        <v>15810</v>
       </c>
       <c r="D172" t="n">
         <v>3129</v>
       </c>
       <c r="E172" t="n">
-        <v>69050694</v>
+        <v>69069730</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9156,13 +9223,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5254</v>
+        <v>5256</v>
       </c>
       <c r="D173" t="n">
         <v>1047</v>
       </c>
       <c r="E173" t="n">
-        <v>31347605</v>
+        <v>31362657</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9258,13 +9325,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D175" t="n">
         <v>115</v>
       </c>
       <c r="E175" t="n">
-        <v>10942128</v>
+        <v>11064467</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -9411,13 +9478,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5168</v>
+        <v>5174</v>
       </c>
       <c r="D178" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E178" t="n">
-        <v>10212456</v>
+        <v>10214000</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -9513,13 +9580,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>21904</v>
+        <v>21909</v>
       </c>
       <c r="D180" t="n">
         <v>4277</v>
       </c>
       <c r="E180" t="n">
-        <v>97972117</v>
+        <v>97986269</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9564,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>9047</v>
+        <v>9051</v>
       </c>
       <c r="D181" t="n">
         <v>1773</v>
       </c>
       <c r="E181" t="n">
-        <v>54765918</v>
+        <v>54802516</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9615,13 +9682,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="D182" t="n">
         <v>557</v>
       </c>
       <c r="E182" t="n">
-        <v>25679974</v>
+        <v>25685900</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -9666,13 +9733,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D183" t="n">
         <v>258</v>
       </c>
       <c r="E183" t="n">
-        <v>19667540</v>
+        <v>19706517</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -9921,13 +9988,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>8739</v>
+        <v>8742</v>
       </c>
       <c r="D188" t="n">
         <v>1665</v>
       </c>
       <c r="E188" t="n">
-        <v>30281100</v>
+        <v>30290804</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -9972,13 +10039,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>24624</v>
+        <v>24637</v>
       </c>
       <c r="D189" t="n">
         <v>4882</v>
       </c>
       <c r="E189" t="n">
-        <v>108188986</v>
+        <v>108217303</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -10023,13 +10090,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>10308</v>
+        <v>10316</v>
       </c>
       <c r="D190" t="n">
         <v>2052</v>
       </c>
       <c r="E190" t="n">
-        <v>63393603</v>
+        <v>63441812</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -10074,13 +10141,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4186</v>
+        <v>4188</v>
       </c>
       <c r="D191" t="n">
         <v>785</v>
       </c>
       <c r="E191" t="n">
-        <v>36906805</v>
+        <v>36915093</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10125,13 +10192,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2267</v>
+        <v>2272</v>
       </c>
       <c r="D192" t="n">
         <v>408</v>
       </c>
       <c r="E192" t="n">
-        <v>34122560</v>
+        <v>34174720</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -10380,13 +10447,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6702</v>
+        <v>6705</v>
       </c>
       <c r="D197" t="n">
         <v>1488</v>
       </c>
       <c r="E197" t="n">
-        <v>14190651</v>
+        <v>14194760</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -10431,13 +10498,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>10052</v>
+        <v>10054</v>
       </c>
       <c r="D198" t="n">
         <v>1803</v>
       </c>
       <c r="E198" t="n">
-        <v>39561970</v>
+        <v>39597908</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -10482,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>20829</v>
+        <v>20836</v>
       </c>
       <c r="D199" t="n">
         <v>4151</v>
       </c>
       <c r="E199" t="n">
-        <v>93791078</v>
+        <v>93834079</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -10533,13 +10600,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8082</v>
+        <v>8085</v>
       </c>
       <c r="D200" t="n">
         <v>1607</v>
       </c>
       <c r="E200" t="n">
-        <v>48473115</v>
+        <v>48489656</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -10584,13 +10651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="D201" t="n">
         <v>542</v>
       </c>
       <c r="E201" t="n">
-        <v>23400514</v>
+        <v>23408015</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -10635,13 +10702,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D202" t="n">
         <v>203</v>
       </c>
       <c r="E202" t="n">
-        <v>17114642</v>
+        <v>17120905</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -10788,13 +10855,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6380</v>
+        <v>6381</v>
       </c>
       <c r="D205" t="n">
         <v>1405</v>
       </c>
       <c r="E205" t="n">
-        <v>13403475</v>
+        <v>13416800</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -10839,13 +10906,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="D206" t="n">
         <v>417</v>
       </c>
       <c r="E206" t="n">
-        <v>7251291</v>
+        <v>7267041</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -10890,13 +10957,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>6243</v>
+        <v>6246</v>
       </c>
       <c r="D207" t="n">
         <v>1323</v>
       </c>
       <c r="E207" t="n">
-        <v>25080749</v>
+        <v>25099859</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -10941,13 +11008,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="D208" t="n">
         <v>508</v>
       </c>
       <c r="E208" t="n">
-        <v>13779223</v>
+        <v>13798643</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -11043,13 +11110,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D210" t="n">
         <v>68</v>
       </c>
       <c r="E210" t="n">
-        <v>5034713</v>
+        <v>5037851</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -11145,13 +11212,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2450</v>
+        <v>2457</v>
       </c>
       <c r="D212" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E212" t="n">
-        <v>4822347</v>
+        <v>4852402</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -11247,13 +11314,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>8251</v>
+        <v>8254</v>
       </c>
       <c r="D214" t="n">
         <v>1791</v>
       </c>
       <c r="E214" t="n">
-        <v>30819035</v>
+        <v>30822064</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -11298,13 +11365,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="D215" t="n">
         <v>692</v>
       </c>
       <c r="E215" t="n">
-        <v>16615246</v>
+        <v>16618039</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -11553,13 +11620,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="D220" t="n">
         <v>534</v>
       </c>
       <c r="E220" t="n">
-        <v>4523156</v>
+        <v>4523456</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11655,13 +11722,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>4747</v>
+        <v>4748</v>
       </c>
       <c r="D222" t="n">
         <v>973</v>
       </c>
       <c r="E222" t="n">
-        <v>17879242</v>
+        <v>17880501</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11706,13 +11773,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D223" t="n">
         <v>408</v>
       </c>
       <c r="E223" t="n">
-        <v>10146942</v>
+        <v>10153339</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -12012,13 +12079,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>5648</v>
+        <v>5650</v>
       </c>
       <c r="D229" t="n">
         <v>1073</v>
       </c>
       <c r="E229" t="n">
-        <v>19214049</v>
+        <v>19216476</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -12063,13 +12130,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>14733</v>
+        <v>14742</v>
       </c>
       <c r="D230" t="n">
         <v>3033</v>
       </c>
       <c r="E230" t="n">
-        <v>62287736</v>
+        <v>62309577</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -12114,13 +12181,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6108</v>
+        <v>6111</v>
       </c>
       <c r="D231" t="n">
         <v>1184</v>
       </c>
       <c r="E231" t="n">
-        <v>35176043</v>
+        <v>35180557</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -12165,13 +12232,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="D232" t="n">
         <v>393</v>
       </c>
       <c r="E232" t="n">
-        <v>18107401</v>
+        <v>18120281</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -12216,13 +12283,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D233" t="n">
         <v>175</v>
       </c>
       <c r="E233" t="n">
-        <v>17760455</v>
+        <v>17771215</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -12369,13 +12436,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="D236" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E236" t="n">
-        <v>9977760</v>
+        <v>9978142</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -12420,13 +12487,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="D237" t="n">
         <v>929</v>
       </c>
       <c r="E237" t="n">
-        <v>13204435</v>
+        <v>13220395</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -12471,13 +12538,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>13381</v>
+        <v>13384</v>
       </c>
       <c r="D238" t="n">
         <v>2896</v>
       </c>
       <c r="E238" t="n">
-        <v>51306726</v>
+        <v>51315158</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -12522,13 +12589,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>5879</v>
+        <v>5884</v>
       </c>
       <c r="D239" t="n">
         <v>1217</v>
       </c>
       <c r="E239" t="n">
-        <v>33710829</v>
+        <v>33743209</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -12573,13 +12640,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D240" t="n">
         <v>352</v>
       </c>
       <c r="E240" t="n">
-        <v>14147360</v>
+        <v>14150519</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -12726,13 +12793,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="D243" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E243" t="n">
-        <v>7923812</v>
+        <v>7924612</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -12777,13 +12844,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="D244" t="n">
         <v>511</v>
       </c>
       <c r="E244" t="n">
-        <v>9019596</v>
+        <v>9020529</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -12828,13 +12895,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>7921</v>
+        <v>7923</v>
       </c>
       <c r="D245" t="n">
         <v>1678</v>
       </c>
       <c r="E245" t="n">
-        <v>32343271</v>
+        <v>32346526</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -12879,13 +12946,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2943</v>
+        <v>2946</v>
       </c>
       <c r="D246" t="n">
         <v>639</v>
       </c>
       <c r="E246" t="n">
-        <v>16285605</v>
+        <v>16297231</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -13032,13 +13099,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D249" t="n">
         <v>27</v>
       </c>
       <c r="E249" t="n">
-        <v>5816295</v>
+        <v>6016295</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -13185,13 +13252,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D252" t="n">
         <v>485</v>
       </c>
       <c r="E252" t="n">
-        <v>10557356</v>
+        <v>10558644</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -13287,13 +13354,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>6732</v>
+        <v>6734</v>
       </c>
       <c r="D254" t="n">
         <v>1049</v>
       </c>
       <c r="E254" t="n">
-        <v>41512263</v>
+        <v>41522336</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -13542,13 +13609,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D259" t="n">
         <v>527</v>
       </c>
       <c r="E259" t="n">
-        <v>4562692</v>
+        <v>4562968</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -13593,13 +13660,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>7347</v>
+        <v>7348</v>
       </c>
       <c r="D260" t="n">
         <v>1048</v>
       </c>
       <c r="E260" t="n">
-        <v>31647918</v>
+        <v>31647960</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -13644,13 +13711,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>11552</v>
+        <v>11554</v>
       </c>
       <c r="D261" t="n">
         <v>1963</v>
       </c>
       <c r="E261" t="n">
-        <v>49760354</v>
+        <v>49761494</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -13695,13 +13762,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="D262" t="n">
         <v>721</v>
       </c>
       <c r="E262" t="n">
-        <v>23663626</v>
+        <v>23665091</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -13746,13 +13813,13 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D263" t="n">
         <v>224</v>
       </c>
       <c r="E263" t="n">
-        <v>10991658</v>
+        <v>10992767</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -13797,13 +13864,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D264" t="n">
         <v>102</v>
       </c>
       <c r="E264" t="n">
-        <v>8738917</v>
+        <v>8743014</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -13899,13 +13966,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="D266" t="n">
         <v>713</v>
       </c>
       <c r="E266" t="n">
-        <v>7456087</v>
+        <v>7458215</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -14001,13 +14068,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>5613</v>
+        <v>5617</v>
       </c>
       <c r="D268" t="n">
         <v>1187</v>
       </c>
       <c r="E268" t="n">
-        <v>20143752</v>
+        <v>20171504</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -14256,13 +14323,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D273" t="n">
         <v>466</v>
       </c>
       <c r="E273" t="n">
-        <v>4382836</v>
+        <v>4383061</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -14307,13 +14374,13 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="D274" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E274" t="n">
-        <v>10527626</v>
+        <v>10530391</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -14358,13 +14425,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>8644</v>
+        <v>8645</v>
       </c>
       <c r="D275" t="n">
         <v>1815</v>
       </c>
       <c r="E275" t="n">
-        <v>42749478</v>
+        <v>42771076</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -14409,13 +14476,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="D276" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E276" t="n">
-        <v>21678958</v>
+        <v>21695534</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -14613,13 +14680,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4237</v>
+        <v>4239</v>
       </c>
       <c r="D280" t="n">
         <v>1032</v>
       </c>
       <c r="E280" t="n">
-        <v>15825447</v>
+        <v>15828150</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -14664,13 +14731,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>11064</v>
+        <v>11070</v>
       </c>
       <c r="D281" t="n">
         <v>2118</v>
       </c>
       <c r="E281" t="n">
-        <v>35907123</v>
+        <v>35912457</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -14715,13 +14782,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>32601</v>
+        <v>32618</v>
       </c>
       <c r="D282" t="n">
         <v>6753</v>
       </c>
       <c r="E282" t="n">
-        <v>127408947</v>
+        <v>127487959</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -14766,13 +14833,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>14563</v>
+        <v>14569</v>
       </c>
       <c r="D283" t="n">
         <v>2802</v>
       </c>
       <c r="E283" t="n">
-        <v>83577193</v>
+        <v>83604988</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -14817,13 +14884,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>6365</v>
+        <v>6371</v>
       </c>
       <c r="D284" t="n">
         <v>1067</v>
       </c>
       <c r="E284" t="n">
-        <v>52377303</v>
+        <v>52447976</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -14868,13 +14935,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="D285" t="n">
         <v>505</v>
       </c>
       <c r="E285" t="n">
-        <v>50537933</v>
+        <v>50660491</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -14919,13 +14986,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="D286" t="n">
         <v>184</v>
       </c>
       <c r="E286" t="n">
-        <v>42132128</v>
+        <v>42602372</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -15072,13 +15139,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>9691</v>
+        <v>9695</v>
       </c>
       <c r="D289" t="n">
         <v>1960</v>
       </c>
       <c r="E289" t="n">
-        <v>19476050</v>
+        <v>19493469</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -15480,13 +15547,13 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>7374</v>
+        <v>7376</v>
       </c>
       <c r="D297" t="n">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E297" t="n">
-        <v>26932110</v>
+        <v>26934200</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -15531,13 +15598,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>20630</v>
+        <v>20636</v>
       </c>
       <c r="D298" t="n">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E298" t="n">
-        <v>87729183</v>
+        <v>87751109</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -15582,13 +15649,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9718</v>
+        <v>9720</v>
       </c>
       <c r="D299" t="n">
         <v>1848</v>
       </c>
       <c r="E299" t="n">
-        <v>56043228</v>
+        <v>56052613</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -15633,13 +15700,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="D300" t="n">
         <v>614</v>
       </c>
       <c r="E300" t="n">
-        <v>29705625</v>
+        <v>29790141</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -15888,13 +15955,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4942</v>
+        <v>4943</v>
       </c>
       <c r="D305" t="n">
         <v>1092</v>
       </c>
       <c r="E305" t="n">
-        <v>9767266</v>
+        <v>9767770</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -15939,13 +16006,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6138</v>
+        <v>6142</v>
       </c>
       <c r="D306" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E306" t="n">
-        <v>25879405</v>
+        <v>25901147</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -15990,13 +16057,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>18891</v>
+        <v>18896</v>
       </c>
       <c r="D307" t="n">
         <v>4224</v>
       </c>
       <c r="E307" t="n">
-        <v>102608692</v>
+        <v>102628775</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -16041,13 +16108,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>7307</v>
+        <v>7309</v>
       </c>
       <c r="D308" t="n">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="E308" t="n">
-        <v>54716397</v>
+        <v>54732857</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -16092,13 +16159,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="D309" t="n">
         <v>514</v>
       </c>
       <c r="E309" t="n">
-        <v>25823490</v>
+        <v>25837831</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -16143,13 +16210,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D310" t="n">
         <v>205</v>
       </c>
       <c r="E310" t="n">
-        <v>23484362</v>
+        <v>23547042</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -16296,13 +16363,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>12777</v>
+        <v>12786</v>
       </c>
       <c r="D313" t="n">
         <v>3362</v>
       </c>
       <c r="E313" t="n">
-        <v>49636910</v>
+        <v>49670233</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -16398,13 +16465,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>13547</v>
+        <v>13553</v>
       </c>
       <c r="D315" t="n">
         <v>2851</v>
       </c>
       <c r="E315" t="n">
-        <v>52816420</v>
+        <v>52821725</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -16449,13 +16516,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>5033</v>
+        <v>5034</v>
       </c>
       <c r="D316" t="n">
         <v>1066</v>
       </c>
       <c r="E316" t="n">
-        <v>25868503</v>
+        <v>25872008</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -16500,13 +16567,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D317" t="n">
         <v>392</v>
       </c>
       <c r="E317" t="n">
-        <v>15173842</v>
+        <v>15182193</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -16755,13 +16822,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D322" t="n">
         <v>252</v>
       </c>
       <c r="E322" t="n">
-        <v>3490041</v>
+        <v>3498371</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -16806,13 +16873,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D323" t="n">
         <v>709</v>
       </c>
       <c r="E323" t="n">
-        <v>13051658</v>
+        <v>13053384</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -16857,13 +16924,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D324" t="n">
         <v>243</v>
       </c>
       <c r="E324" t="n">
-        <v>6176767</v>
+        <v>6181191</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -17112,13 +17179,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>5816</v>
+        <v>5817</v>
       </c>
       <c r="D329" t="n">
         <v>1279</v>
       </c>
       <c r="E329" t="n">
-        <v>16427250</v>
+        <v>16427843</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -17163,13 +17230,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>20382</v>
+        <v>20390</v>
       </c>
       <c r="D330" t="n">
         <v>4302</v>
       </c>
       <c r="E330" t="n">
-        <v>73975058</v>
+        <v>73998771</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -17214,13 +17281,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>9758</v>
+        <v>9760</v>
       </c>
       <c r="D331" t="n">
         <v>1979</v>
       </c>
       <c r="E331" t="n">
-        <v>52684204</v>
+        <v>52686812</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -17265,13 +17332,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3823</v>
+        <v>3827</v>
       </c>
       <c r="D332" t="n">
         <v>727</v>
       </c>
       <c r="E332" t="n">
-        <v>28339800</v>
+        <v>28358734</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -17571,13 +17638,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3851</v>
+        <v>3853</v>
       </c>
       <c r="D338" t="n">
         <v>759</v>
       </c>
       <c r="E338" t="n">
-        <v>12226276</v>
+        <v>12230484</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -17622,13 +17689,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>9867</v>
+        <v>9871</v>
       </c>
       <c r="D339" t="n">
         <v>1997</v>
       </c>
       <c r="E339" t="n">
-        <v>41216632</v>
+        <v>41232107</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -17673,13 +17740,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="D340" t="n">
         <v>728</v>
       </c>
       <c r="E340" t="n">
-        <v>19052567</v>
+        <v>19053974</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -17724,13 +17791,13 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D341" t="n">
         <v>238</v>
       </c>
       <c r="E341" t="n">
-        <v>8610618</v>
+        <v>8616511</v>
       </c>
       <c r="F341" t="inlineStr">
         <is>
@@ -17826,13 +17893,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D343" t="n">
         <v>41</v>
       </c>
       <c r="E343" t="n">
-        <v>6992672</v>
+        <v>7009619</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
@@ -17979,13 +18046,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3736</v>
+        <v>3738</v>
       </c>
       <c r="D346" t="n">
         <v>781</v>
       </c>
       <c r="E346" t="n">
-        <v>8105224</v>
+        <v>8106981</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -18030,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>12378</v>
+        <v>12384</v>
       </c>
       <c r="D347" t="n">
         <v>2778</v>
       </c>
       <c r="E347" t="n">
-        <v>30691688</v>
+        <v>30712577</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18081,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>4247</v>
+        <v>4250</v>
       </c>
       <c r="D348" t="n">
         <v>1035</v>
       </c>
       <c r="E348" t="n">
-        <v>14686266</v>
+        <v>14701512</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18132,13 +18199,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="D349" t="n">
         <v>387</v>
       </c>
       <c r="E349" t="n">
-        <v>8280872</v>
+        <v>8308298</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -18183,13 +18250,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D350" t="n">
         <v>125</v>
       </c>
       <c r="E350" t="n">
-        <v>5566187</v>
+        <v>5580460</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -18387,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>13694</v>
+        <v>13699</v>
       </c>
       <c r="D354" t="n">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="E354" t="n">
-        <v>21925865</v>
+        <v>21930505</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -18489,13 +18556,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>5746</v>
+        <v>5748</v>
       </c>
       <c r="D356" t="n">
         <v>951</v>
       </c>
       <c r="E356" t="n">
-        <v>14005295</v>
+        <v>14008295</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -18540,13 +18607,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D357" t="n">
         <v>410</v>
       </c>
       <c r="E357" t="n">
-        <v>6456215</v>
+        <v>6466215</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -18744,13 +18811,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="D361" t="n">
         <v>557</v>
       </c>
       <c r="E361" t="n">
-        <v>7453216</v>
+        <v>7456216</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -18846,13 +18913,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>9232</v>
+        <v>9236</v>
       </c>
       <c r="D363" t="n">
         <v>1960</v>
       </c>
       <c r="E363" t="n">
-        <v>37807755</v>
+        <v>37812102</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -19203,13 +19270,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>17296</v>
+        <v>17305</v>
       </c>
       <c r="D370" t="n">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="E370" t="n">
-        <v>50608306</v>
+        <v>50620232</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -19254,13 +19321,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>50800</v>
+        <v>50817</v>
       </c>
       <c r="D371" t="n">
         <v>9846</v>
       </c>
       <c r="E371" t="n">
-        <v>198778331</v>
+        <v>198808797</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -19305,13 +19372,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>21445</v>
+        <v>21451</v>
       </c>
       <c r="D372" t="n">
         <v>3972</v>
       </c>
       <c r="E372" t="n">
-        <v>125631560</v>
+        <v>125652117</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -19356,13 +19423,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>8060</v>
+        <v>8063</v>
       </c>
       <c r="D373" t="n">
         <v>1481</v>
       </c>
       <c r="E373" t="n">
-        <v>62994093</v>
+        <v>63147797</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -19407,13 +19474,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>3862</v>
+        <v>3864</v>
       </c>
       <c r="D374" t="n">
         <v>659</v>
       </c>
       <c r="E374" t="n">
-        <v>56194864</v>
+        <v>56213860</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -19458,13 +19525,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="D375" t="n">
         <v>272</v>
       </c>
       <c r="E375" t="n">
-        <v>44530614</v>
+        <v>44639115</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -19815,13 +19882,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>13519</v>
+        <v>13523</v>
       </c>
       <c r="D382" t="n">
         <v>2867</v>
       </c>
       <c r="E382" t="n">
-        <v>25539074</v>
+        <v>25540452</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -19866,13 +19933,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4957</v>
+        <v>4958</v>
       </c>
       <c r="D383" t="n">
         <v>1047</v>
       </c>
       <c r="E383" t="n">
-        <v>14825602</v>
+        <v>14831996</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -19917,13 +19984,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>15536</v>
+        <v>15540</v>
       </c>
       <c r="D384" t="n">
         <v>3282</v>
       </c>
       <c r="E384" t="n">
-        <v>57080306</v>
+        <v>57084938</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -20121,13 +20188,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D388" t="n">
         <v>66</v>
       </c>
       <c r="E388" t="n">
-        <v>14263035</v>
+        <v>14316196</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -20325,13 +20392,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>8686</v>
+        <v>8687</v>
       </c>
       <c r="D392" t="n">
         <v>1725</v>
       </c>
       <c r="E392" t="n">
-        <v>24388249</v>
+        <v>24388648</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -20376,13 +20443,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>26786</v>
+        <v>26791</v>
       </c>
       <c r="D393" t="n">
         <v>5475</v>
       </c>
       <c r="E393" t="n">
-        <v>102686090</v>
+        <v>102693731</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -20427,13 +20494,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>10063</v>
+        <v>10066</v>
       </c>
       <c r="D394" t="n">
         <v>2043</v>
       </c>
       <c r="E394" t="n">
-        <v>55909067</v>
+        <v>55927132</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -20478,13 +20545,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="D395" t="n">
         <v>752</v>
       </c>
       <c r="E395" t="n">
-        <v>29358267</v>
+        <v>29371335</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -20580,13 +20647,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D397" t="n">
         <v>140</v>
       </c>
       <c r="E397" t="n">
-        <v>27299633</v>
+        <v>27341115</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -20682,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>8451</v>
+        <v>8456</v>
       </c>
       <c r="D399" t="n">
         <v>1762</v>
       </c>
       <c r="E399" t="n">
-        <v>15656646</v>
+        <v>15669791</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20784,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>10577</v>
+        <v>10579</v>
       </c>
       <c r="D401" t="n">
         <v>2153</v>
       </c>
       <c r="E401" t="n">
-        <v>41789149</v>
+        <v>41792305</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -20835,13 +20902,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4518</v>
+        <v>4519</v>
       </c>
       <c r="D402" t="n">
         <v>899</v>
       </c>
       <c r="E402" t="n">
-        <v>24423898</v>
+        <v>24425883</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -21090,13 +21157,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="D407" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E407" t="n">
-        <v>6923755</v>
+        <v>6923886</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -21141,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9175</v>
+        <v>9177</v>
       </c>
       <c r="D408" t="n">
         <v>1708</v>
       </c>
       <c r="E408" t="n">
-        <v>25756681</v>
+        <v>25758326</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -21192,13 +21259,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>24545</v>
+        <v>24553</v>
       </c>
       <c r="D409" t="n">
         <v>5182</v>
       </c>
       <c r="E409" t="n">
-        <v>85102389</v>
+        <v>85168900</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -21243,13 +21310,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>10557</v>
+        <v>10568</v>
       </c>
       <c r="D410" t="n">
         <v>2274</v>
       </c>
       <c r="E410" t="n">
-        <v>57400840</v>
+        <v>57467743</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -21294,13 +21361,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3859</v>
+        <v>3864</v>
       </c>
       <c r="D411" t="n">
         <v>795</v>
       </c>
       <c r="E411" t="n">
-        <v>30204866</v>
+        <v>30260685</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -21345,13 +21412,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="D412" t="n">
         <v>292</v>
       </c>
       <c r="E412" t="n">
-        <v>24240902</v>
+        <v>24266627</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -21396,13 +21463,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D413" t="n">
         <v>120</v>
       </c>
       <c r="E413" t="n">
-        <v>23694980</v>
+        <v>23720804</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -21702,13 +21769,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>18726</v>
+        <v>18734</v>
       </c>
       <c r="D419" t="n">
         <v>3127</v>
       </c>
       <c r="E419" t="n">
-        <v>59346156</v>
+        <v>59373855</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -21753,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>43681</v>
+        <v>43706</v>
       </c>
       <c r="D420" t="n">
         <v>7678</v>
       </c>
       <c r="E420" t="n">
-        <v>173571413</v>
+        <v>173693902</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -21804,13 +21871,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>22466</v>
+        <v>22483</v>
       </c>
       <c r="D421" t="n">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="E421" t="n">
-        <v>141440581</v>
+        <v>141744730</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -21855,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>9166</v>
+        <v>9171</v>
       </c>
       <c r="D422" t="n">
         <v>1487</v>
       </c>
       <c r="E422" t="n">
-        <v>87313230</v>
+        <v>87396290</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -21906,13 +21973,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4278</v>
+        <v>4282</v>
       </c>
       <c r="D423" t="n">
         <v>699</v>
       </c>
       <c r="E423" t="n">
-        <v>77695165</v>
+        <v>77934998</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -21957,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D424" t="n">
         <v>272</v>
       </c>
       <c r="E424" t="n">
-        <v>59425646</v>
+        <v>59485653</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22365,13 +22432,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>14223</v>
+        <v>14230</v>
       </c>
       <c r="D432" t="n">
         <v>2593</v>
       </c>
       <c r="E432" t="n">
-        <v>27805510</v>
+        <v>27810471</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -22416,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>57801</v>
+        <v>57838</v>
       </c>
       <c r="D433" t="n">
-        <v>9571</v>
+        <v>9572</v>
       </c>
       <c r="E433" t="n">
-        <v>204684215</v>
+        <v>204792088</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22467,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>153414</v>
+        <v>153536</v>
       </c>
       <c r="D434" t="n">
-        <v>25361</v>
+        <v>25362</v>
       </c>
       <c r="E434" t="n">
-        <v>653457663</v>
+        <v>654246528</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22518,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>86795</v>
+        <v>86891</v>
       </c>
       <c r="D435" t="n">
-        <v>12795</v>
+        <v>12797</v>
       </c>
       <c r="E435" t="n">
-        <v>579355206</v>
+        <v>580391328</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22569,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>45041</v>
+        <v>45104</v>
       </c>
       <c r="D436" t="n">
-        <v>6145</v>
+        <v>6147</v>
       </c>
       <c r="E436" t="n">
-        <v>460801429</v>
+        <v>461959984</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22620,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>26724</v>
+        <v>26765</v>
       </c>
       <c r="D437" t="n">
         <v>3800</v>
       </c>
       <c r="E437" t="n">
-        <v>493928874</v>
+        <v>494880664</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22671,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>8243</v>
+        <v>8258</v>
       </c>
       <c r="D438" t="n">
         <v>1369</v>
       </c>
       <c r="E438" t="n">
-        <v>371713555</v>
+        <v>372365596</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -22722,13 +22789,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D439" t="n">
         <v>223</v>
       </c>
       <c r="E439" t="n">
-        <v>101606840</v>
+        <v>101752315</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -22773,13 +22840,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D440" t="n">
         <v>92</v>
       </c>
       <c r="E440" t="n">
-        <v>57227127</v>
+        <v>57346660</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -23079,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>50639</v>
+        <v>50669</v>
       </c>
       <c r="D446" t="n">
-        <v>8702</v>
+        <v>8708</v>
       </c>
       <c r="E446" t="n">
-        <v>111555444</v>
+        <v>111631765</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23130,13 +23197,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>11274</v>
+        <v>11281</v>
       </c>
       <c r="D447" t="n">
         <v>2083</v>
       </c>
       <c r="E447" t="n">
-        <v>33037606</v>
+        <v>33056053</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -23181,13 +23248,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>29881</v>
+        <v>29893</v>
       </c>
       <c r="D448" t="n">
         <v>6206</v>
       </c>
       <c r="E448" t="n">
-        <v>107421216</v>
+        <v>107449486</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -23232,13 +23299,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>12432</v>
+        <v>12436</v>
       </c>
       <c r="D449" t="n">
         <v>2659</v>
       </c>
       <c r="E449" t="n">
-        <v>69187219</v>
+        <v>69199700</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -23334,13 +23401,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="D451" t="n">
         <v>382</v>
       </c>
       <c r="E451" t="n">
-        <v>34956786</v>
+        <v>34985425</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -23385,13 +23452,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D452" t="n">
         <v>140</v>
       </c>
       <c r="E452" t="n">
-        <v>27769336</v>
+        <v>27782714</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -23538,13 +23605,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>10857</v>
+        <v>10861</v>
       </c>
       <c r="D455" t="n">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="E455" t="n">
-        <v>20073143</v>
+        <v>20077296</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -23589,13 +23656,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>14797</v>
+        <v>14810</v>
       </c>
       <c r="D456" t="n">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="E456" t="n">
-        <v>39754439</v>
+        <v>39813961</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23640,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>46938</v>
+        <v>46957</v>
       </c>
       <c r="D457" t="n">
         <v>8563</v>
       </c>
       <c r="E457" t="n">
-        <v>156846904</v>
+        <v>156927888</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -23691,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>22796</v>
+        <v>22812</v>
       </c>
       <c r="D458" t="n">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="E458" t="n">
-        <v>122640881</v>
+        <v>122795113</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -23742,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7270</v>
+        <v>7277</v>
       </c>
       <c r="D459" t="n">
         <v>1529</v>
       </c>
       <c r="E459" t="n">
-        <v>56919449</v>
+        <v>56950532</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -23793,13 +23860,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="D460" t="n">
         <v>596</v>
       </c>
       <c r="E460" t="n">
-        <v>44546394</v>
+        <v>44681557</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -23844,13 +23911,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="D461" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E461" t="n">
-        <v>39152382</v>
+        <v>39380546</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -24099,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>15095</v>
+        <v>15100</v>
       </c>
       <c r="D466" t="n">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="E466" t="n">
-        <v>27662916</v>
+        <v>27667246</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -24150,13 +24217,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>13039</v>
+        <v>13045</v>
       </c>
       <c r="D467" t="n">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E467" t="n">
-        <v>39363196</v>
+        <v>39376884</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24201,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>35867</v>
+        <v>35893</v>
       </c>
       <c r="D468" t="n">
-        <v>6638</v>
+        <v>6639</v>
       </c>
       <c r="E468" t="n">
-        <v>126995509</v>
+        <v>127121987</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -24252,13 +24319,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>15688</v>
+        <v>15692</v>
       </c>
       <c r="D469" t="n">
         <v>3038</v>
       </c>
       <c r="E469" t="n">
-        <v>84366368</v>
+        <v>84376453</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -24303,13 +24370,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="D470" t="n">
         <v>1075</v>
       </c>
       <c r="E470" t="n">
-        <v>50664285</v>
+        <v>50700198</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -24354,13 +24421,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2447</v>
+        <v>2454</v>
       </c>
       <c r="D471" t="n">
         <v>432</v>
       </c>
       <c r="E471" t="n">
-        <v>39621800</v>
+        <v>39840025</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -24405,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="D472" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E472" t="n">
-        <v>43460999</v>
+        <v>43568723</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24711,13 +24778,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>13175</v>
+        <v>13184</v>
       </c>
       <c r="D478" t="n">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="E478" t="n">
-        <v>24338775</v>
+        <v>24343112</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -24762,13 +24829,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>9423</v>
+        <v>9427</v>
       </c>
       <c r="D479" t="n">
         <v>1663</v>
       </c>
       <c r="E479" t="n">
-        <v>24622767</v>
+        <v>24631198</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -24813,13 +24880,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>27797</v>
+        <v>27806</v>
       </c>
       <c r="D480" t="n">
         <v>5513</v>
       </c>
       <c r="E480" t="n">
-        <v>92324429</v>
+        <v>92364885</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -24864,13 +24931,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>12054</v>
+        <v>12064</v>
       </c>
       <c r="D481" t="n">
         <v>2578</v>
       </c>
       <c r="E481" t="n">
-        <v>60889353</v>
+        <v>60976984</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -24915,13 +24982,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="D482" t="n">
         <v>878</v>
       </c>
       <c r="E482" t="n">
-        <v>29738958</v>
+        <v>29770626</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -24966,13 +25033,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="D483" t="n">
         <v>365</v>
       </c>
       <c r="E483" t="n">
-        <v>26076135</v>
+        <v>26137551</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -25017,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D484" t="n">
         <v>121</v>
       </c>
       <c r="E484" t="n">
-        <v>24796407</v>
+        <v>24929666</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25170,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>9167</v>
+        <v>9172</v>
       </c>
       <c r="D487" t="n">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="E487" t="n">
-        <v>16657973</v>
+        <v>16661390</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25221,13 +25288,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>10106</v>
+        <v>10111</v>
       </c>
       <c r="D488" t="n">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="E488" t="n">
-        <v>29418696</v>
+        <v>29432858</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -25272,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>26803</v>
+        <v>26821</v>
       </c>
       <c r="D489" t="n">
         <v>5732</v>
       </c>
       <c r="E489" t="n">
-        <v>101646725</v>
+        <v>101704161</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -25323,13 +25390,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>12526</v>
+        <v>12531</v>
       </c>
       <c r="D490" t="n">
         <v>2481</v>
       </c>
       <c r="E490" t="n">
-        <v>73635066</v>
+        <v>73663044</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -25374,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>5000</v>
+        <v>5001</v>
       </c>
       <c r="D491" t="n">
         <v>915</v>
       </c>
       <c r="E491" t="n">
-        <v>39851800</v>
+        <v>39861800</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -25476,13 +25543,13 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D493" t="n">
         <v>138</v>
       </c>
       <c r="E493" t="n">
-        <v>28501147</v>
+        <v>28502854</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
@@ -25629,13 +25696,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>8880</v>
+        <v>8882</v>
       </c>
       <c r="D496" t="n">
         <v>1936</v>
       </c>
       <c r="E496" t="n">
-        <v>17206069</v>
+        <v>17207852</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -25731,13 +25798,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>17310</v>
+        <v>17312</v>
       </c>
       <c r="D498" t="n">
         <v>4975</v>
       </c>
       <c r="E498" t="n">
-        <v>38461112</v>
+        <v>38464584</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -25986,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D503" t="n">
         <v>16</v>
       </c>
       <c r="E503" t="n">
-        <v>2427909</v>
+        <v>2516917</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -26088,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>8341</v>
+        <v>8344</v>
       </c>
       <c r="D505" t="n">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="E505" t="n">
-        <v>12175532</v>
+        <v>12178282</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26139,13 +26206,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="D506" t="n">
         <v>688</v>
       </c>
       <c r="E506" t="n">
-        <v>7965987</v>
+        <v>7966293</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -26190,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>9884</v>
+        <v>9890</v>
       </c>
       <c r="D507" t="n">
         <v>2230</v>
       </c>
       <c r="E507" t="n">
-        <v>27791163</v>
+        <v>27819150</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26343,13 +26410,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D510" t="n">
         <v>151</v>
       </c>
       <c r="E510" t="n">
-        <v>5794293</v>
+        <v>5817941</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -26496,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>6958</v>
+        <v>6963</v>
       </c>
       <c r="D513" t="n">
         <v>1421</v>
       </c>
       <c r="E513" t="n">
-        <v>10811194</v>
+        <v>10818608</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -26547,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D514" t="n">
         <v>241</v>
       </c>
       <c r="E514" t="n">
-        <v>4379573</v>
+        <v>4381353</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -26853,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>8036</v>
+        <v>8037</v>
       </c>
       <c r="D520" t="n">
         <v>1483</v>
       </c>
       <c r="E520" t="n">
-        <v>29039309</v>
+        <v>29041954</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -26904,13 +26971,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>18657</v>
+        <v>18668</v>
       </c>
       <c r="D521" t="n">
         <v>3813</v>
       </c>
       <c r="E521" t="n">
-        <v>79526543</v>
+        <v>79547386</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -26955,13 +27022,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>7641</v>
+        <v>7644</v>
       </c>
       <c r="D522" t="n">
         <v>1449</v>
       </c>
       <c r="E522" t="n">
-        <v>46615730</v>
+        <v>46625110</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -27108,13 +27175,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D525" t="n">
         <v>96</v>
       </c>
       <c r="E525" t="n">
-        <v>20501075</v>
+        <v>20573027</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -27312,13 +27379,13 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>4193</v>
+        <v>4196</v>
       </c>
       <c r="D529" t="n">
         <v>851</v>
       </c>
       <c r="E529" t="n">
-        <v>12843391</v>
+        <v>12844375</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
@@ -27363,13 +27430,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>11744</v>
+        <v>11745</v>
       </c>
       <c r="D530" t="n">
         <v>2539</v>
       </c>
       <c r="E530" t="n">
-        <v>44791281</v>
+        <v>44794443</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -27414,13 +27481,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>4387</v>
+        <v>4389</v>
       </c>
       <c r="D531" t="n">
         <v>943</v>
       </c>
       <c r="E531" t="n">
-        <v>23194336</v>
+        <v>23196699</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -27669,13 +27736,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D536" t="n">
         <v>792</v>
       </c>
       <c r="E536" t="n">
-        <v>7312429</v>
+        <v>7312579</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -27720,13 +27787,13 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>5096</v>
+        <v>5098</v>
       </c>
       <c r="D537" t="n">
         <v>938</v>
       </c>
       <c r="E537" t="n">
-        <v>18397747</v>
+        <v>18403234</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
@@ -27771,13 +27838,13 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>12351</v>
+        <v>12355</v>
       </c>
       <c r="D538" t="n">
         <v>2488</v>
       </c>
       <c r="E538" t="n">
-        <v>53296935</v>
+        <v>53357117</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -27822,13 +27889,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="D539" t="n">
         <v>938</v>
       </c>
       <c r="E539" t="n">
-        <v>26635927</v>
+        <v>26638731</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -27873,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D540" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E540" t="n">
-        <v>14121959</v>
+        <v>14138443</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -28077,13 +28144,13 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="D544" t="n">
         <v>783</v>
       </c>
       <c r="E544" t="n">
-        <v>6944256</v>
+        <v>6944810</v>
       </c>
       <c r="F544" t="inlineStr">
         <is>
@@ -28179,13 +28246,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>6458</v>
+        <v>6460</v>
       </c>
       <c r="D546" t="n">
         <v>1361</v>
       </c>
       <c r="E546" t="n">
-        <v>25296941</v>
+        <v>25305216</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -28230,13 +28297,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="D547" t="n">
         <v>439</v>
       </c>
       <c r="E547" t="n">
-        <v>10520420</v>
+        <v>10531046</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -28485,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>7726</v>
+        <v>7729</v>
       </c>
       <c r="D552" t="n">
         <v>1506</v>
       </c>
       <c r="E552" t="n">
-        <v>24536901</v>
+        <v>24544404</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28536,13 +28603,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>24165</v>
+        <v>24172</v>
       </c>
       <c r="D553" t="n">
-        <v>4893</v>
+        <v>4894</v>
       </c>
       <c r="E553" t="n">
-        <v>99676411</v>
+        <v>99703708</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -28587,13 +28654,13 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>10490</v>
+        <v>10497</v>
       </c>
       <c r="D554" t="n">
         <v>2010</v>
       </c>
       <c r="E554" t="n">
-        <v>61039792</v>
+        <v>61070099</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -28740,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D557" t="n">
         <v>130</v>
       </c>
       <c r="E557" t="n">
-        <v>23725320</v>
+        <v>23744253</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -28893,13 +28960,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>6378</v>
+        <v>6380</v>
       </c>
       <c r="D560" t="n">
         <v>1419</v>
       </c>
       <c r="E560" t="n">
-        <v>12305017</v>
+        <v>12313733</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -28944,13 +29011,13 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="D561" t="n">
         <v>570</v>
       </c>
       <c r="E561" t="n">
-        <v>8140661</v>
+        <v>8141246</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -28995,13 +29062,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>7526</v>
+        <v>7527</v>
       </c>
       <c r="D562" t="n">
         <v>1668</v>
       </c>
       <c r="E562" t="n">
-        <v>29288652</v>
+        <v>29290376</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -29046,13 +29113,13 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="D563" t="n">
         <v>613</v>
       </c>
       <c r="E563" t="n">
-        <v>15270001</v>
+        <v>15278341</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -29097,13 +29164,13 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D564" t="n">
         <v>220</v>
       </c>
       <c r="E564" t="n">
-        <v>8613464</v>
+        <v>8620116</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -29352,13 +29419,13 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>11617</v>
+        <v>11620</v>
       </c>
       <c r="D569" t="n">
         <v>2154</v>
       </c>
       <c r="E569" t="n">
-        <v>44436666</v>
+        <v>44442916</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -29403,13 +29470,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>19796</v>
+        <v>19802</v>
       </c>
       <c r="D570" t="n">
         <v>4350</v>
       </c>
       <c r="E570" t="n">
-        <v>83857516</v>
+        <v>83872412</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -29454,13 +29521,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>7200</v>
+        <v>7204</v>
       </c>
       <c r="D571" t="n">
         <v>1532</v>
       </c>
       <c r="E571" t="n">
-        <v>45545671</v>
+        <v>45564139</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -29505,13 +29572,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="D572" t="n">
         <v>519</v>
       </c>
       <c r="E572" t="n">
-        <v>23019159</v>
+        <v>23019265</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -29556,13 +29623,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D573" t="n">
         <v>210</v>
       </c>
       <c r="E573" t="n">
-        <v>19308310</v>
+        <v>19312572</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -29607,13 +29674,13 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D574" t="n">
         <v>84</v>
       </c>
       <c r="E574" t="n">
-        <v>18015805</v>
+        <v>18122122</v>
       </c>
       <c r="F574" t="inlineStr">
         <is>
@@ -29760,13 +29827,13 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>5567</v>
+        <v>5568</v>
       </c>
       <c r="D577" t="n">
         <v>1366</v>
       </c>
       <c r="E577" t="n">
-        <v>11117426</v>
+        <v>11122540</v>
       </c>
       <c r="F577" t="inlineStr">
         <is>
@@ -29862,13 +29929,13 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>6496</v>
+        <v>6498</v>
       </c>
       <c r="D579" t="n">
         <v>1356</v>
       </c>
       <c r="E579" t="n">
-        <v>26098564</v>
+        <v>26101262</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -29913,13 +29980,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="D580" t="n">
         <v>463</v>
       </c>
       <c r="E580" t="n">
-        <v>11573559</v>
+        <v>11588488</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -30219,13 +30286,13 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="D586" t="n">
         <v>548</v>
       </c>
       <c r="E586" t="n">
-        <v>8860610</v>
+        <v>8860912</v>
       </c>
       <c r="F586" t="inlineStr">
         <is>
@@ -30576,13 +30643,13 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>6957</v>
+        <v>6958</v>
       </c>
       <c r="D593" t="n">
         <v>1521</v>
       </c>
       <c r="E593" t="n">
-        <v>27160276</v>
+        <v>27161776</v>
       </c>
       <c r="F593" t="inlineStr">
         <is>
@@ -30627,13 +30694,13 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="D594" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E594" t="n">
-        <v>13578773</v>
+        <v>13626630</v>
       </c>
       <c r="F594" t="inlineStr">
         <is>
@@ -30882,13 +30949,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D599" t="n">
         <v>481</v>
       </c>
       <c r="E599" t="n">
-        <v>4005165</v>
+        <v>4005382</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -30984,13 +31051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>13453</v>
+        <v>13462</v>
       </c>
       <c r="D601" t="n">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="E601" t="n">
-        <v>56255230</v>
+        <v>56299715</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -31035,13 +31102,13 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>4262</v>
+        <v>4266</v>
       </c>
       <c r="D602" t="n">
         <v>893</v>
       </c>
       <c r="E602" t="n">
-        <v>24000215</v>
+        <v>24023924</v>
       </c>
       <c r="F602" t="inlineStr">
         <is>
@@ -31086,13 +31153,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D603" t="n">
         <v>283</v>
       </c>
       <c r="E603" t="n">
-        <v>9981055</v>
+        <v>9984966</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -31137,13 +31204,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D604" t="n">
         <v>112</v>
       </c>
       <c r="E604" t="n">
-        <v>9221187</v>
+        <v>9258093</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -31290,13 +31357,13 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="D607" t="n">
         <v>1172</v>
       </c>
       <c r="E607" t="n">
-        <v>9581433</v>
+        <v>9582393</v>
       </c>
       <c r="F607" t="inlineStr">
         <is>
@@ -31341,13 +31408,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>22353</v>
+        <v>22355</v>
       </c>
       <c r="D608" t="n">
         <v>4551</v>
       </c>
       <c r="E608" t="n">
-        <v>77730241</v>
+        <v>77733322</v>
       </c>
       <c r="F608" t="inlineStr">
         <is>
@@ -31392,13 +31459,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>47004</v>
+        <v>47021</v>
       </c>
       <c r="D609" t="n">
-        <v>10102</v>
+        <v>10105</v>
       </c>
       <c r="E609" t="n">
-        <v>196142170</v>
+        <v>196243620</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -31443,13 +31510,13 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>19791</v>
+        <v>19801</v>
       </c>
       <c r="D610" t="n">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="E610" t="n">
-        <v>119691449</v>
+        <v>119726485</v>
       </c>
       <c r="F610" t="inlineStr">
         <is>
@@ -31494,13 +31561,13 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>8235</v>
+        <v>8246</v>
       </c>
       <c r="D611" t="n">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E611" t="n">
-        <v>68740690</v>
+        <v>68829038</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -31545,13 +31612,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>3980</v>
+        <v>3985</v>
       </c>
       <c r="D612" t="n">
         <v>697</v>
       </c>
       <c r="E612" t="n">
-        <v>64209951</v>
+        <v>64327693</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -31596,13 +31663,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="D613" t="n">
         <v>250</v>
       </c>
       <c r="E613" t="n">
-        <v>48896179</v>
+        <v>48966775</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -31800,13 +31867,13 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>15459</v>
+        <v>15468</v>
       </c>
       <c r="D617" t="n">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="E617" t="n">
-        <v>36140364</v>
+        <v>36162695</v>
       </c>
       <c r="F617" t="inlineStr">
         <is>
@@ -31851,13 +31918,13 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>3281</v>
+        <v>3283</v>
       </c>
       <c r="D618" t="n">
         <v>627</v>
       </c>
       <c r="E618" t="n">
-        <v>9647742</v>
+        <v>9658348</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
@@ -31902,13 +31969,13 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>7877</v>
+        <v>7879</v>
       </c>
       <c r="D619" t="n">
         <v>1635</v>
       </c>
       <c r="E619" t="n">
-        <v>30379087</v>
+        <v>30382065</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
@@ -31953,13 +32020,13 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="D620" t="n">
         <v>644</v>
       </c>
       <c r="E620" t="n">
-        <v>16993301</v>
+        <v>17009841</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
@@ -32055,13 +32122,13 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D622" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E622" t="n">
-        <v>8793150</v>
+        <v>8849798</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
@@ -32208,13 +32275,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>8060</v>
+        <v>8063</v>
       </c>
       <c r="D625" t="n">
         <v>1430</v>
       </c>
       <c r="E625" t="n">
-        <v>31138585</v>
+        <v>31149126</v>
       </c>
       <c r="F625" t="inlineStr">
         <is>
@@ -32259,13 +32326,13 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>12315</v>
+        <v>12319</v>
       </c>
       <c r="D626" t="n">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="E626" t="n">
-        <v>49952418</v>
+        <v>49960191</v>
       </c>
       <c r="F626" t="inlineStr">
         <is>
@@ -32310,13 +32377,13 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="D627" t="n">
         <v>896</v>
       </c>
       <c r="E627" t="n">
-        <v>22958332</v>
+        <v>22959906</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
@@ -32412,13 +32479,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D629" t="n">
         <v>114</v>
       </c>
       <c r="E629" t="n">
-        <v>8485449</v>
+        <v>8490887</v>
       </c>
       <c r="F629" t="inlineStr">
         <is>
@@ -32565,13 +32632,13 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="D632" t="n">
         <v>825</v>
       </c>
       <c r="E632" t="n">
-        <v>7082435</v>
+        <v>7082705</v>
       </c>
       <c r="F632" t="inlineStr">
         <is>
@@ -32616,13 +32683,13 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="D633" t="n">
         <v>775</v>
       </c>
       <c r="E633" t="n">
-        <v>12933713</v>
+        <v>12935213</v>
       </c>
       <c r="F633" t="inlineStr">
         <is>
@@ -32667,13 +32734,13 @@
         </is>
       </c>
       <c r="C634" t="n">
-        <v>8249</v>
+        <v>8256</v>
       </c>
       <c r="D634" t="n">
         <v>1822</v>
       </c>
       <c r="E634" t="n">
-        <v>30678541</v>
+        <v>30698730</v>
       </c>
       <c r="F634" t="inlineStr">
         <is>
@@ -32718,13 +32785,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>3095</v>
+        <v>3099</v>
       </c>
       <c r="D635" t="n">
         <v>689</v>
       </c>
       <c r="E635" t="n">
-        <v>16161116</v>
+        <v>16188370</v>
       </c>
       <c r="F635" t="inlineStr">
         <is>
@@ -32769,13 +32836,13 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D636" t="n">
         <v>209</v>
       </c>
       <c r="E636" t="n">
-        <v>5414486</v>
+        <v>5421565</v>
       </c>
       <c r="F636" t="inlineStr">
         <is>
@@ -32820,13 +32887,13 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D637" t="n">
         <v>67</v>
       </c>
       <c r="E637" t="n">
-        <v>5482597</v>
+        <v>5493012</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -32922,13 +32989,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="D639" t="n">
         <v>752</v>
       </c>
       <c r="E639" t="n">
-        <v>5829604</v>
+        <v>5832557</v>
       </c>
       <c r="F639" t="inlineStr">
         <is>
@@ -32973,13 +33040,13 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>10316</v>
+        <v>10317</v>
       </c>
       <c r="D640" t="n">
         <v>1856</v>
       </c>
       <c r="E640" t="n">
-        <v>36810162</v>
+        <v>36810998</v>
       </c>
       <c r="F640" t="inlineStr">
         <is>
@@ -33024,13 +33091,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>23545</v>
+        <v>23546</v>
       </c>
       <c r="D641" t="n">
         <v>4827</v>
       </c>
       <c r="E641" t="n">
-        <v>97927639</v>
+        <v>97942906</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
@@ -33075,13 +33142,13 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>9339</v>
+        <v>9343</v>
       </c>
       <c r="D642" t="n">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E642" t="n">
-        <v>54904418</v>
+        <v>54949073</v>
       </c>
       <c r="F642" t="inlineStr">
         <is>
@@ -33126,13 +33193,13 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="D643" t="n">
         <v>673</v>
       </c>
       <c r="E643" t="n">
-        <v>28927974</v>
+        <v>28932759</v>
       </c>
       <c r="F643" t="inlineStr">
         <is>
@@ -33177,13 +33244,13 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="D644" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E644" t="n">
-        <v>24281239</v>
+        <v>24291239</v>
       </c>
       <c r="F644" t="inlineStr">
         <is>
@@ -33330,13 +33397,13 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>8087</v>
+        <v>8089</v>
       </c>
       <c r="D647" t="n">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E647" t="n">
-        <v>15925895</v>
+        <v>15927777</v>
       </c>
       <c r="F647" t="inlineStr">
         <is>
@@ -33432,13 +33499,13 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>8262</v>
+        <v>8265</v>
       </c>
       <c r="D649" t="n">
         <v>1780</v>
       </c>
       <c r="E649" t="n">
-        <v>31506439</v>
+        <v>31528061</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
@@ -33840,13 +33907,13 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>4650</v>
+        <v>4652</v>
       </c>
       <c r="D657" t="n">
         <v>910</v>
       </c>
       <c r="E657" t="n">
-        <v>18105822</v>
+        <v>18106740</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -33891,13 +33958,13 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D658" t="n">
         <v>339</v>
       </c>
       <c r="E658" t="n">
-        <v>11017087</v>
+        <v>11018212</v>
       </c>
       <c r="F658" t="inlineStr">
         <is>
@@ -34146,13 +34213,13 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>7784</v>
+        <v>7786</v>
       </c>
       <c r="D663" t="n">
         <v>1290</v>
       </c>
       <c r="E663" t="n">
-        <v>28601073</v>
+        <v>28604955</v>
       </c>
       <c r="F663" t="inlineStr">
         <is>
@@ -34197,13 +34264,13 @@
         </is>
       </c>
       <c r="C664" t="n">
-        <v>12900</v>
+        <v>12906</v>
       </c>
       <c r="D664" t="n">
         <v>2491</v>
       </c>
       <c r="E664" t="n">
-        <v>53400841</v>
+        <v>53411788</v>
       </c>
       <c r="F664" t="inlineStr">
         <is>
@@ -34350,13 +34417,13 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D667" t="n">
         <v>110</v>
       </c>
       <c r="E667" t="n">
-        <v>9463983</v>
+        <v>9500449</v>
       </c>
       <c r="F667" t="inlineStr">
         <is>
@@ -34503,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="D670" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E670" t="n">
-        <v>7624417</v>
+        <v>7626365</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -34554,13 +34621,13 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="D671" t="n">
         <v>858</v>
       </c>
       <c r="E671" t="n">
-        <v>17441651</v>
+        <v>17445262</v>
       </c>
       <c r="F671" t="inlineStr">
         <is>
@@ -34605,13 +34672,13 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>9300</v>
+        <v>9301</v>
       </c>
       <c r="D672" t="n">
         <v>1924</v>
       </c>
       <c r="E672" t="n">
-        <v>36371298</v>
+        <v>36372951</v>
       </c>
       <c r="F672" t="inlineStr">
         <is>
@@ -34656,13 +34723,13 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="D673" t="n">
         <v>627</v>
       </c>
       <c r="E673" t="n">
-        <v>16194608</v>
+        <v>16203108</v>
       </c>
       <c r="F673" t="inlineStr">
         <is>
@@ -34911,13 +34978,13 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>11826</v>
+        <v>11828</v>
       </c>
       <c r="D678" t="n">
         <v>2142</v>
       </c>
       <c r="E678" t="n">
-        <v>38908899</v>
+        <v>38915653</v>
       </c>
       <c r="F678" t="inlineStr">
         <is>
@@ -34962,13 +35029,13 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>26619</v>
+        <v>26625</v>
       </c>
       <c r="D679" t="n">
         <v>5254</v>
       </c>
       <c r="E679" t="n">
-        <v>102535457</v>
+        <v>102569737</v>
       </c>
       <c r="F679" t="inlineStr">
         <is>
@@ -35013,13 +35080,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>8439</v>
+        <v>8440</v>
       </c>
       <c r="D680" t="n">
         <v>1721</v>
       </c>
       <c r="E680" t="n">
-        <v>47165278</v>
+        <v>47189534</v>
       </c>
       <c r="F680" t="inlineStr">
         <is>
@@ -35115,13 +35182,13 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D682" t="n">
         <v>205</v>
       </c>
       <c r="E682" t="n">
-        <v>16017148</v>
+        <v>16026650</v>
       </c>
       <c r="F682" t="inlineStr">
         <is>
@@ -35319,13 +35386,13 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>9142</v>
+        <v>9146</v>
       </c>
       <c r="D686" t="n">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="E686" t="n">
-        <v>17278194</v>
+        <v>17281081</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -35421,13 +35488,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>5849</v>
+        <v>5853</v>
       </c>
       <c r="D688" t="n">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E688" t="n">
-        <v>24094927</v>
+        <v>24126323</v>
       </c>
       <c r="F688" t="inlineStr">
         <is>
@@ -35472,13 +35539,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="D689" t="n">
         <v>426</v>
       </c>
       <c r="E689" t="n">
-        <v>10305131</v>
+        <v>10312085</v>
       </c>
       <c r="F689" t="inlineStr">
         <is>
@@ -35676,13 +35743,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="D693" t="n">
         <v>659</v>
       </c>
       <c r="E693" t="n">
-        <v>5680143</v>
+        <v>5683944</v>
       </c>
       <c r="F693" t="inlineStr">
         <is>
@@ -35727,13 +35794,13 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>14952</v>
+        <v>14959</v>
       </c>
       <c r="D694" t="n">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="E694" t="n">
-        <v>42820330</v>
+        <v>42850293</v>
       </c>
       <c r="F694" t="inlineStr">
         <is>
@@ -35778,13 +35845,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>37283</v>
+        <v>37294</v>
       </c>
       <c r="D695" t="n">
         <v>7690</v>
       </c>
       <c r="E695" t="n">
-        <v>139444102</v>
+        <v>139469333</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
@@ -35829,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>15786</v>
+        <v>15795</v>
       </c>
       <c r="D696" t="n">
         <v>3090</v>
       </c>
       <c r="E696" t="n">
-        <v>91335364</v>
+        <v>91389205</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -35880,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>6126</v>
+        <v>6134</v>
       </c>
       <c r="D697" t="n">
         <v>1140</v>
       </c>
       <c r="E697" t="n">
-        <v>47878326</v>
+        <v>47916455</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -35931,13 +35998,13 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="D698" t="n">
         <v>516</v>
       </c>
       <c r="E698" t="n">
-        <v>47504205</v>
+        <v>47677628</v>
       </c>
       <c r="F698" t="inlineStr">
         <is>
@@ -36033,13 +36100,13 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D700" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E700" t="n">
-        <v>9277222</v>
+        <v>9354744</v>
       </c>
       <c r="F700" t="inlineStr">
         <is>
@@ -36237,13 +36304,13 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>12549</v>
+        <v>12552</v>
       </c>
       <c r="D704" t="n">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="E704" t="n">
-        <v>22608985</v>
+        <v>22612125</v>
       </c>
       <c r="F704" t="inlineStr">
         <is>
@@ -36288,13 +36355,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>5072</v>
+        <v>5077</v>
       </c>
       <c r="D705" t="n">
         <v>716</v>
       </c>
       <c r="E705" t="n">
-        <v>21643743</v>
+        <v>21665515</v>
       </c>
       <c r="F705" t="inlineStr">
         <is>
@@ -36339,13 +36406,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>9273</v>
+        <v>9279</v>
       </c>
       <c r="D706" t="n">
         <v>1650</v>
       </c>
       <c r="E706" t="n">
-        <v>42591702</v>
+        <v>42610290</v>
       </c>
       <c r="F706" t="inlineStr">
         <is>
@@ -36390,13 +36457,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>3666</v>
+        <v>3669</v>
       </c>
       <c r="D707" t="n">
         <v>645</v>
       </c>
       <c r="E707" t="n">
-        <v>25474974</v>
+        <v>25488633</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36441,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D708" t="n">
         <v>194</v>
       </c>
       <c r="E708" t="n">
-        <v>12903129</v>
+        <v>12912689</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -36492,13 +36559,13 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D709" t="n">
         <v>99</v>
       </c>
       <c r="E709" t="n">
-        <v>11360389</v>
+        <v>11388594</v>
       </c>
       <c r="F709" t="inlineStr">
         <is>
@@ -36645,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>4950</v>
+        <v>4954</v>
       </c>
       <c r="D712" t="n">
         <v>843</v>
       </c>
       <c r="E712" t="n">
-        <v>10444679</v>
+        <v>10448729</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -36696,13 +36763,13 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>24477</v>
+        <v>24480</v>
       </c>
       <c r="D713" t="n">
         <v>4130</v>
       </c>
       <c r="E713" t="n">
-        <v>86422296</v>
+        <v>86431611</v>
       </c>
       <c r="F713" t="inlineStr">
         <is>
@@ -36747,13 +36814,13 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>47578</v>
+        <v>47595</v>
       </c>
       <c r="D714" t="n">
         <v>9147</v>
       </c>
       <c r="E714" t="n">
-        <v>186806274</v>
+        <v>186893302</v>
       </c>
       <c r="F714" t="inlineStr">
         <is>
@@ -36798,13 +36865,13 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>16103</v>
+        <v>16111</v>
       </c>
       <c r="D715" t="n">
         <v>3085</v>
       </c>
       <c r="E715" t="n">
-        <v>93016924</v>
+        <v>93047141</v>
       </c>
       <c r="F715" t="inlineStr">
         <is>
@@ -36849,13 +36916,13 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>5702</v>
+        <v>5705</v>
       </c>
       <c r="D716" t="n">
         <v>1070</v>
       </c>
       <c r="E716" t="n">
-        <v>46866536</v>
+        <v>46896824</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
@@ -36900,13 +36967,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="D717" t="n">
         <v>460</v>
       </c>
       <c r="E717" t="n">
-        <v>39928298</v>
+        <v>40005618</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -36951,13 +37018,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D718" t="n">
         <v>161</v>
       </c>
       <c r="E718" t="n">
-        <v>31935815</v>
+        <v>31956923</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -37155,13 +37222,13 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>13229</v>
+        <v>13236</v>
       </c>
       <c r="D722" t="n">
         <v>2876</v>
       </c>
       <c r="E722" t="n">
-        <v>25398306</v>
+        <v>25402553</v>
       </c>
       <c r="F722" t="inlineStr">
         <is>
@@ -37206,13 +37273,13 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="D723" t="n">
         <v>614</v>
       </c>
       <c r="E723" t="n">
-        <v>13618166</v>
+        <v>13618742</v>
       </c>
       <c r="F723" t="inlineStr">
         <is>
@@ -37257,13 +37324,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>5815</v>
+        <v>5819</v>
       </c>
       <c r="D724" t="n">
         <v>1156</v>
       </c>
       <c r="E724" t="n">
-        <v>24302325</v>
+        <v>24305908</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -37308,13 +37375,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D725" t="n">
         <v>390</v>
       </c>
       <c r="E725" t="n">
-        <v>11112890</v>
+        <v>11129487</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -37512,13 +37579,13 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="D729" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E729" t="n">
-        <v>4413501</v>
+        <v>4413953</v>
       </c>
       <c r="F729" t="inlineStr">
         <is>
@@ -37920,13 +37987,13 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>11675</v>
+        <v>11676</v>
       </c>
       <c r="D737" t="n">
         <v>1911</v>
       </c>
       <c r="E737" t="n">
-        <v>43392857</v>
+        <v>43393903</v>
       </c>
       <c r="F737" t="inlineStr">
         <is>
@@ -37971,13 +38038,13 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>17597</v>
+        <v>17603</v>
       </c>
       <c r="D738" t="n">
         <v>3480</v>
       </c>
       <c r="E738" t="n">
-        <v>69729028</v>
+        <v>69756095</v>
       </c>
       <c r="F738" t="inlineStr">
         <is>
@@ -38022,13 +38089,13 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>6329</v>
+        <v>6331</v>
       </c>
       <c r="D739" t="n">
         <v>1240</v>
       </c>
       <c r="E739" t="n">
-        <v>37326045</v>
+        <v>37332842</v>
       </c>
       <c r="F739" t="inlineStr">
         <is>
@@ -38073,13 +38140,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="D740" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E740" t="n">
-        <v>17202907</v>
+        <v>17239965</v>
       </c>
       <c r="F740" t="inlineStr">
         <is>
@@ -38124,13 +38191,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D741" t="n">
         <v>179</v>
       </c>
       <c r="E741" t="n">
-        <v>15472635</v>
+        <v>15510267</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
@@ -38175,13 +38242,13 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D742" t="n">
         <v>60</v>
       </c>
       <c r="E742" t="n">
-        <v>13128822</v>
+        <v>13139826</v>
       </c>
       <c r="F742" t="inlineStr">
         <is>
@@ -38277,13 +38344,13 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>5809</v>
+        <v>5811</v>
       </c>
       <c r="D744" t="n">
         <v>1207</v>
       </c>
       <c r="E744" t="n">
-        <v>10951148</v>
+        <v>10954270</v>
       </c>
       <c r="F744" t="inlineStr">
         <is>
@@ -38328,13 +38395,13 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>4173</v>
+        <v>4175</v>
       </c>
       <c r="D745" t="n">
         <v>844</v>
       </c>
       <c r="E745" t="n">
-        <v>12155005</v>
+        <v>12155659</v>
       </c>
       <c r="F745" t="inlineStr">
         <is>
@@ -38379,13 +38446,13 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>9987</v>
+        <v>9991</v>
       </c>
       <c r="D746" t="n">
         <v>2206</v>
       </c>
       <c r="E746" t="n">
-        <v>37087045</v>
+        <v>37091686</v>
       </c>
       <c r="F746" t="inlineStr">
         <is>
@@ -38430,13 +38497,13 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="D747" t="n">
         <v>741</v>
       </c>
       <c r="E747" t="n">
-        <v>17952792</v>
+        <v>17969309</v>
       </c>
       <c r="F747" t="inlineStr">
         <is>
@@ -38481,13 +38548,13 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D748" t="n">
         <v>224</v>
       </c>
       <c r="E748" t="n">
-        <v>8574655</v>
+        <v>8575838</v>
       </c>
       <c r="F748" t="inlineStr">
         <is>
@@ -38634,13 +38701,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="D751" t="n">
         <v>872</v>
       </c>
       <c r="E751" t="n">
-        <v>6798618</v>
+        <v>6800100</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
@@ -38685,13 +38752,13 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="D752" t="n">
         <v>546</v>
       </c>
       <c r="E752" t="n">
-        <v>7852525</v>
+        <v>7859320</v>
       </c>
       <c r="F752" t="inlineStr">
         <is>
@@ -38787,13 +38854,13 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="D754" t="n">
         <v>486</v>
       </c>
       <c r="E754" t="n">
-        <v>11289024</v>
+        <v>11303459</v>
       </c>
       <c r="F754" t="inlineStr">
         <is>
@@ -39042,13 +39109,13 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>13038</v>
+        <v>13042</v>
       </c>
       <c r="D759" t="n">
         <v>2552</v>
       </c>
       <c r="E759" t="n">
-        <v>43657497</v>
+        <v>43665216</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -39093,13 +39160,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>30947</v>
+        <v>30959</v>
       </c>
       <c r="D760" t="n">
         <v>6512</v>
       </c>
       <c r="E760" t="n">
-        <v>134374733</v>
+        <v>134451111</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -39144,13 +39211,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>14167</v>
+        <v>14174</v>
       </c>
       <c r="D761" t="n">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="E761" t="n">
-        <v>84965108</v>
+        <v>84994339</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -39195,13 +39262,13 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>5007</v>
+        <v>5008</v>
       </c>
       <c r="D762" t="n">
         <v>970</v>
       </c>
       <c r="E762" t="n">
-        <v>43414686</v>
+        <v>43420865</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -39246,13 +39313,13 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="D763" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E763" t="n">
-        <v>38198233</v>
+        <v>38235277</v>
       </c>
       <c r="F763" t="inlineStr">
         <is>
@@ -39297,13 +39364,13 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D764" t="n">
         <v>168</v>
       </c>
       <c r="E764" t="n">
-        <v>37212932</v>
+        <v>37438517</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -39450,13 +39517,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>8410</v>
+        <v>8411</v>
       </c>
       <c r="D767" t="n">
         <v>1986</v>
       </c>
       <c r="E767" t="n">
-        <v>16782499</v>
+        <v>16782752</v>
       </c>
       <c r="F767" t="inlineStr">
         <is>
@@ -39501,13 +39568,13 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>5658</v>
+        <v>5660</v>
       </c>
       <c r="D768" t="n">
         <v>1161</v>
       </c>
       <c r="E768" t="n">
-        <v>18033138</v>
+        <v>18033933</v>
       </c>
       <c r="F768" t="inlineStr">
         <is>
@@ -39552,13 +39619,13 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>17839</v>
+        <v>17848</v>
       </c>
       <c r="D769" t="n">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="E769" t="n">
-        <v>76185875</v>
+        <v>76215524</v>
       </c>
       <c r="F769" t="inlineStr">
         <is>
@@ -39603,13 +39670,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>6680</v>
+        <v>6685</v>
       </c>
       <c r="D770" t="n">
         <v>1455</v>
       </c>
       <c r="E770" t="n">
-        <v>38160016</v>
+        <v>38171115</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -39705,13 +39772,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="D772" t="n">
         <v>223</v>
       </c>
       <c r="E772" t="n">
-        <v>17853847</v>
+        <v>17911278</v>
       </c>
       <c r="F772" t="inlineStr">
         <is>
@@ -39858,13 +39925,13 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>4938</v>
+        <v>4939</v>
       </c>
       <c r="D775" t="n">
         <v>1143</v>
       </c>
       <c r="E775" t="n">
-        <v>10264241</v>
+        <v>10266813</v>
       </c>
       <c r="F775" t="inlineStr">
         <is>
@@ -39909,13 +39976,13 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="D776" t="n">
         <v>451</v>
       </c>
       <c r="E776" t="n">
-        <v>6851035</v>
+        <v>6851955</v>
       </c>
       <c r="F776" t="inlineStr">
         <is>
@@ -39960,13 +40027,13 @@
         </is>
       </c>
       <c r="C777" t="n">
-        <v>5906</v>
+        <v>5911</v>
       </c>
       <c r="D777" t="n">
         <v>1313</v>
       </c>
       <c r="E777" t="n">
-        <v>23066484</v>
+        <v>23083073</v>
       </c>
       <c r="F777" t="inlineStr">
         <is>
@@ -40011,13 +40078,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="D778" t="n">
         <v>505</v>
       </c>
       <c r="E778" t="n">
-        <v>11957641</v>
+        <v>11958200</v>
       </c>
       <c r="F778" t="inlineStr">
         <is>
@@ -40062,13 +40129,13 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D779" t="n">
         <v>168</v>
       </c>
       <c r="E779" t="n">
-        <v>5671336</v>
+        <v>5679139</v>
       </c>
       <c r="F779" t="inlineStr">
         <is>
@@ -40215,13 +40282,13 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="D782" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E782" t="n">
-        <v>3520876</v>
+        <v>3523884</v>
       </c>
       <c r="F782" t="inlineStr">
         <is>
@@ -40317,13 +40384,13 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>10387</v>
+        <v>10395</v>
       </c>
       <c r="D784" t="n">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="E784" t="n">
-        <v>43302616</v>
+        <v>43339730</v>
       </c>
       <c r="F784" t="inlineStr">
         <is>
@@ -40368,13 +40435,13 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>4026</v>
+        <v>4029</v>
       </c>
       <c r="D785" t="n">
         <v>847</v>
       </c>
       <c r="E785" t="n">
-        <v>22588696</v>
+        <v>22606404</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -40419,13 +40486,13 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D786" t="n">
         <v>281</v>
       </c>
       <c r="E786" t="n">
-        <v>10207762</v>
+        <v>10211306</v>
       </c>
       <c r="F786" t="inlineStr">
         <is>
@@ -40521,13 +40588,13 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D788" t="n">
         <v>47</v>
       </c>
       <c r="E788" t="n">
-        <v>10527426</v>
+        <v>10557208</v>
       </c>
       <c r="F788" t="inlineStr">
         <is>
@@ -40572,13 +40639,13 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="D789" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E789" t="n">
-        <v>5124731</v>
+        <v>5125757</v>
       </c>
       <c r="F789" t="inlineStr">
         <is>
@@ -40674,13 +40741,13 @@
         </is>
       </c>
       <c r="C791" t="n">
-        <v>16087</v>
+        <v>16090</v>
       </c>
       <c r="D791" t="n">
         <v>3421</v>
       </c>
       <c r="E791" t="n">
-        <v>70161104</v>
+        <v>70175286</v>
       </c>
       <c r="F791" t="inlineStr">
         <is>
@@ -40725,13 +40792,13 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>7221</v>
+        <v>7225</v>
       </c>
       <c r="D792" t="n">
         <v>1524</v>
       </c>
       <c r="E792" t="n">
-        <v>45068676</v>
+        <v>45074804</v>
       </c>
       <c r="F792" t="inlineStr">
         <is>
@@ -40776,13 +40843,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="D793" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E793" t="n">
-        <v>19918622</v>
+        <v>19935311</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -40827,13 +40894,13 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D794" t="n">
         <v>179</v>
       </c>
       <c r="E794" t="n">
-        <v>18621846</v>
+        <v>18691184</v>
       </c>
       <c r="F794" t="inlineStr">
         <is>
@@ -41031,13 +41098,13 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="D798" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E798" t="n">
-        <v>8501963</v>
+        <v>8503534</v>
       </c>
       <c r="F798" t="inlineStr">
         <is>
@@ -41133,13 +41200,13 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>7809</v>
+        <v>7810</v>
       </c>
       <c r="D800" t="n">
         <v>1417</v>
       </c>
       <c r="E800" t="n">
-        <v>33302777</v>
+        <v>33312196</v>
       </c>
       <c r="F800" t="inlineStr">
         <is>
@@ -41184,13 +41251,13 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="D801" t="n">
         <v>467</v>
       </c>
       <c r="E801" t="n">
-        <v>15911307</v>
+        <v>15917103</v>
       </c>
       <c r="F801" t="inlineStr">
         <is>
@@ -41235,13 +41302,13 @@
         </is>
       </c>
       <c r="C802" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D802" t="n">
         <v>126</v>
       </c>
       <c r="E802" t="n">
-        <v>4571432</v>
+        <v>4593979</v>
       </c>
       <c r="F802" t="inlineStr">
         <is>
@@ -41439,13 +41506,13 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="D806" t="n">
         <v>561</v>
       </c>
       <c r="E806" t="n">
-        <v>5857857</v>
+        <v>5858140</v>
       </c>
       <c r="F806" t="inlineStr">
         <is>
@@ -41490,13 +41557,13 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>24555</v>
+        <v>24558</v>
       </c>
       <c r="D807" t="n">
         <v>4080</v>
       </c>
       <c r="E807" t="n">
-        <v>83749829</v>
+        <v>83755551</v>
       </c>
       <c r="F807" t="inlineStr">
         <is>
@@ -41541,13 +41608,13 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>58498</v>
+        <v>58516</v>
       </c>
       <c r="D808" t="n">
         <v>10161</v>
       </c>
       <c r="E808" t="n">
-        <v>238240231</v>
+        <v>238317215</v>
       </c>
       <c r="F808" t="inlineStr">
         <is>
@@ -41592,13 +41659,13 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>21077</v>
+        <v>21082</v>
       </c>
       <c r="D809" t="n">
         <v>3482</v>
       </c>
       <c r="E809" t="n">
-        <v>132505662</v>
+        <v>132519818</v>
       </c>
       <c r="F809" t="inlineStr">
         <is>
@@ -41643,13 +41710,13 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>8375</v>
+        <v>8381</v>
       </c>
       <c r="D810" t="n">
         <v>1271</v>
       </c>
       <c r="E810" t="n">
-        <v>79137465</v>
+        <v>79273492</v>
       </c>
       <c r="F810" t="inlineStr">
         <is>
@@ -41694,13 +41761,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>4566</v>
+        <v>4570</v>
       </c>
       <c r="D811" t="n">
         <v>698</v>
       </c>
       <c r="E811" t="n">
-        <v>85438279</v>
+        <v>85628287</v>
       </c>
       <c r="F811" t="inlineStr">
         <is>
@@ -42000,13 +42067,13 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>17884</v>
+        <v>17891</v>
       </c>
       <c r="D817" t="n">
-        <v>3469</v>
+        <v>3471</v>
       </c>
       <c r="E817" t="n">
-        <v>35114099</v>
+        <v>35125473</v>
       </c>
       <c r="F817" t="inlineStr">
         <is>
@@ -42051,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>27058</v>
+        <v>27060</v>
       </c>
       <c r="D818" t="n">
         <v>5048</v>
       </c>
       <c r="E818" t="n">
-        <v>85033749</v>
+        <v>85037299</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -42102,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>74587</v>
+        <v>74626</v>
       </c>
       <c r="D819" t="n">
         <v>14058</v>
       </c>
       <c r="E819" t="n">
-        <v>284665212</v>
+        <v>284859463</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -42153,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>27592</v>
+        <v>27604</v>
       </c>
       <c r="D820" t="n">
         <v>5050</v>
       </c>
       <c r="E820" t="n">
-        <v>158580063</v>
+        <v>158619969</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -42204,13 +42271,13 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>9641</v>
+        <v>9646</v>
       </c>
       <c r="D821" t="n">
         <v>1679</v>
       </c>
       <c r="E821" t="n">
-        <v>81545792</v>
+        <v>81632716</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -42255,13 +42322,13 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>4969</v>
+        <v>4977</v>
       </c>
       <c r="D822" t="n">
         <v>799</v>
       </c>
       <c r="E822" t="n">
-        <v>75983673</v>
+        <v>76218406</v>
       </c>
       <c r="F822" t="inlineStr">
         <is>
@@ -42357,13 +42424,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D824" t="n">
         <v>47</v>
       </c>
       <c r="E824" t="n">
-        <v>15813047</v>
+        <v>15843899</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>
@@ -42612,13 +42679,13 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>20532</v>
+        <v>20538</v>
       </c>
       <c r="D829" t="n">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="E829" t="n">
-        <v>37338556</v>
+        <v>37345422</v>
       </c>
       <c r="F829" t="inlineStr">
         <is>
@@ -42663,13 +42730,13 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>4064</v>
+        <v>4066</v>
       </c>
       <c r="D830" t="n">
         <v>677</v>
       </c>
       <c r="E830" t="n">
-        <v>15918183</v>
+        <v>15930803</v>
       </c>
       <c r="F830" t="inlineStr">
         <is>
@@ -42714,13 +42781,13 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>8516</v>
+        <v>8521</v>
       </c>
       <c r="D831" t="n">
         <v>1458</v>
       </c>
       <c r="E831" t="n">
-        <v>41224115</v>
+        <v>41231478</v>
       </c>
       <c r="F831" t="inlineStr">
         <is>
@@ -42867,13 +42934,13 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D834" t="n">
         <v>126</v>
       </c>
       <c r="E834" t="n">
-        <v>11549447</v>
+        <v>11550447</v>
       </c>
       <c r="F834" t="inlineStr">
         <is>
@@ -43071,13 +43138,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>6604</v>
+        <v>6607</v>
       </c>
       <c r="D838" t="n">
         <v>1016</v>
       </c>
       <c r="E838" t="n">
-        <v>15814545</v>
+        <v>15819859</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43122,13 +43189,13 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>24348</v>
+        <v>24352</v>
       </c>
       <c r="D839" t="n">
         <v>4388</v>
       </c>
       <c r="E839" t="n">
-        <v>86658688</v>
+        <v>86665815</v>
       </c>
       <c r="F839" t="inlineStr">
         <is>
@@ -43173,13 +43240,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>44252</v>
+        <v>44263</v>
       </c>
       <c r="D840" t="n">
         <v>8886</v>
       </c>
       <c r="E840" t="n">
-        <v>178068086</v>
+        <v>178097958</v>
       </c>
       <c r="F840" t="inlineStr">
         <is>
@@ -43224,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>14519</v>
+        <v>14522</v>
       </c>
       <c r="D841" t="n">
         <v>2868</v>
       </c>
       <c r="E841" t="n">
-        <v>88095721</v>
+        <v>88099894</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43326,13 +43393,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="D843" t="n">
         <v>393</v>
       </c>
       <c r="E843" t="n">
-        <v>36140464</v>
+        <v>36167894</v>
       </c>
       <c r="F843" t="inlineStr">
         <is>
@@ -43530,13 +43597,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>12044</v>
+        <v>12049</v>
       </c>
       <c r="D847" t="n">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E847" t="n">
-        <v>22925325</v>
+        <v>22930436</v>
       </c>
       <c r="F847" t="inlineStr">
         <is>
@@ -43581,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>10431</v>
+        <v>10433</v>
       </c>
       <c r="D848" t="n">
         <v>1878</v>
       </c>
       <c r="E848" t="n">
-        <v>35907157</v>
+        <v>35910426</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43632,13 +43699,13 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>25898</v>
+        <v>25910</v>
       </c>
       <c r="D849" t="n">
         <v>4891</v>
       </c>
       <c r="E849" t="n">
-        <v>104915013</v>
+        <v>105018985</v>
       </c>
       <c r="F849" t="inlineStr">
         <is>
@@ -43683,13 +43750,13 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>8012</v>
+        <v>8013</v>
       </c>
       <c r="D850" t="n">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="E850" t="n">
-        <v>45727648</v>
+        <v>45731277</v>
       </c>
       <c r="F850" t="inlineStr">
         <is>
@@ -43785,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D852" t="n">
         <v>184</v>
       </c>
       <c r="E852" t="n">
-        <v>17518765</v>
+        <v>17680009</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43938,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>7242</v>
+        <v>7243</v>
       </c>
       <c r="D855" t="n">
         <v>1596</v>
       </c>
       <c r="E855" t="n">
-        <v>14993278</v>
+        <v>14994532</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
